--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F02434-3466-47EC-BC45-945E9B6628B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A58AE0-F401-493B-AC34-03FDFE6420B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8510" yWindow="1850" windowWidth="23730" windowHeight="16550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9540" yWindow="2660" windowWidth="23070" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Degree</t>
   </si>
@@ -79,9 +79,6 @@
     <t>BA(Mod) in Natural Sciences</t>
   </si>
   <si>
-    <t>Biochemisty and Immunology grade: 1:1</t>
-  </si>
-  <si>
     <t>what</t>
   </si>
   <si>
@@ -110,6 +107,15 @@
   </si>
   <si>
     <t>body</t>
+  </si>
+  <si>
+    <t>Grade: 1:1, graduated top of class</t>
+  </si>
+  <si>
+    <t>Constituted 50% of tought compenent of MSc Bioinformatics and Systems Biology</t>
+  </si>
+  <si>
+    <t>Major: Biochemisty with Immunology</t>
   </si>
 </sst>
 </file>
@@ -438,7 +444,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -450,36 +456,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -504,13 +510,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>2007</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -542,6 +551,9 @@
       </c>
       <c r="D6" t="s">
         <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A58AE0-F401-493B-AC34-03FDFE6420B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E877D57-F131-4E59-B8DE-8B39C0CB8D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="2660" windowWidth="23070" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="45" windowWidth="29175" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Degree</t>
   </si>
@@ -117,12 +117,33 @@
   <si>
     <t>Major: Biochemisty with Immunology</t>
   </si>
+  <si>
+    <r>
+      <t>Perspectives on teaching and Learning in Higher Education</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Special Purpose Certificate in Teaching, Learning &amp; Assessment for Academic Practice</t>
+  </si>
+  <si>
+    <t>Consitutes one third of the SP Cert</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +158,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF494C4F"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,8 +195,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,20 +481,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -471,7 +512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -488,7 +529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -505,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -522,7 +563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -539,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -554,6 +595,23 @@
       </c>
       <c r="E6" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>2022</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E877D57-F131-4E59-B8DE-8B39C0CB8D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0D3145-012C-F04C-A6F8-50B63ED24267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="45" windowWidth="29175" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="760" windowWidth="18980" windowHeight="18760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,12 +112,6 @@
     <t>Grade: 1:1, graduated top of class</t>
   </si>
   <si>
-    <t>Constituted 50% of tought compenent of MSc Bioinformatics and Systems Biology</t>
-  </si>
-  <si>
-    <t>Major: Biochemisty with Immunology</t>
-  </si>
-  <si>
     <r>
       <t>Perspectives on teaching and Learning in Higher Education</t>
     </r>
@@ -136,7 +130,13 @@
     <t>Special Purpose Certificate in Teaching, Learning &amp; Assessment for Academic Practice</t>
   </si>
   <si>
-    <t>Consitutes one third of the SP Cert</t>
+    <t>Constituted 50% of taught compenent of MSc Bioinformatics and Systems Biology</t>
+  </si>
+  <si>
+    <t>Constitutes one third of the SP Cert</t>
+  </si>
+  <si>
+    <t>Major: Biochemistry with Immunology</t>
   </si>
 </sst>
 </file>
@@ -484,18 +484,18 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -512,7 +512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -529,7 +529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -546,12 +546,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>2007</v>
@@ -563,7 +563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -580,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -594,15 +594,15 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -611,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
